--- a/_1039/Novo(a) Planilha do Microsoft Excel.xlsx
+++ b/_1039/Novo(a) Planilha do Microsoft Excel.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -18,8 +18,127 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="G9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t>Caçador</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Flor
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t>Caçador - Flor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t>Caçador</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t>Flor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t>Flor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t>Caçador</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="22">
   <si>
     <t>+10</t>
   </si>
@@ -83,15 +202,18 @@
   <si>
     <t>MORTO</t>
   </si>
+  <si>
+    <t>RICO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="00"/>
+    <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +227,28 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="81"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="81"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,15 +462,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -331,129 +479,132 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,16 +614,37 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,11 +926,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BW44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ18" sqref="AQ18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K12" workbookViewId="0">
+      <selection activeCell="BV32" sqref="BV32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -766,18 +938,24 @@
     <col min="1" max="15" width="3.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.7109375" style="36" bestFit="1" customWidth="1"/>
     <col min="17" max="30" width="3.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="9.140625" style="4"/>
-    <col min="34" max="34" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="2.7109375" style="4" customWidth="1"/>
-    <col min="38" max="38" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="4"/>
+    <col min="31" max="31" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.140625" style="4" customWidth="1"/>
+    <col min="39" max="53" width="3.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="68" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="3.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="71" max="73" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="3.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="76" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -810,17 +988,58 @@
       <c r="AB1" s="38"/>
       <c r="AC1" s="38"/>
       <c r="AD1" s="39"/>
-      <c r="AH1" s="47" t="s">
+      <c r="AE1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="50"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="51">
+        <v>10</v>
+      </c>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="38"/>
+      <c r="BL1" s="38"/>
+      <c r="BM1" s="38"/>
+      <c r="BN1" s="38"/>
+      <c r="BO1" s="38"/>
+      <c r="BP1" s="39"/>
+      <c r="BQ1" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="50"/>
+    </row>
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -853,26 +1072,76 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="41"/>
-      <c r="AH2" s="46" t="s">
+      <c r="AE2" s="46" t="s">
         <v>6</v>
       </c>
+      <c r="AF2" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="46" t="s">
+        <v>8</v>
+      </c>
       <c r="AI2" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK2" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="51">
+        <v>9</v>
+      </c>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="41"/>
+      <c r="BQ2" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="46" t="s">
+      <c r="BS2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="46" t="s">
+      <c r="BU2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="46" t="s">
+      <c r="BV2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="46" t="s">
+      <c r="BW2" s="46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -905,26 +1174,76 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="41"/>
-      <c r="AH3" s="5">
+      <c r="AE3" s="5">
         <v>6</v>
       </c>
+      <c r="AF3" s="5">
+        <v>-8</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>2</v>
+      </c>
       <c r="AI3" s="5">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="AJ3" s="5">
-        <v>2</v>
-      </c>
-      <c r="AL3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="51">
+        <v>8</v>
+      </c>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="41"/>
+      <c r="BQ3" s="5">
         <v>3</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="BR3" s="5">
         <v>0</v>
       </c>
-      <c r="AN3" s="5">
+      <c r="BS3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="BU3" s="5">
+        <v>4</v>
+      </c>
+      <c r="BV3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -957,14 +1276,45 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="41"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="51">
+        <v>7</v>
+      </c>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="41"/>
+      <c r="BT4" s="47"/>
+    </row>
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -997,15 +1347,40 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="41"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="53"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="51">
+        <v>6</v>
+      </c>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="41"/>
+    </row>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
@@ -1038,26 +1413,40 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="41"/>
-      <c r="AH6" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI6" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ6" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL6" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM6" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN6" s="46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="51">
+        <v>5</v>
+      </c>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="41"/>
+    </row>
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -1090,26 +1479,40 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="41"/>
-      <c r="AH7" s="5">
-        <v>7</v>
-      </c>
-      <c r="AI7" s="5">
-        <v>3</v>
-      </c>
-      <c r="AJ7" s="5">
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="52">
         <v>4</v>
       </c>
-      <c r="AL7" s="5">
-        <v>2</v>
-      </c>
-      <c r="AM7" s="5">
-        <v>4</v>
-      </c>
-      <c r="AN7" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="41"/>
+    </row>
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -1142,8 +1545,40 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="41"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="17">
+        <v>3</v>
+      </c>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="2"/>
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8" s="2"/>
+      <c r="BO8" s="2"/>
+      <c r="BP8" s="41"/>
+    </row>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -1176,15 +1611,40 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="41"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="53"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="6"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="41"/>
+    </row>
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -1217,26 +1677,40 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="41"/>
-      <c r="AH10" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI10" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ10" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL10" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM10" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN10" s="46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="22"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="6"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="6"/>
+      <c r="BJ10" s="6"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="41"/>
+    </row>
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>-14</v>
       </c>
@@ -1327,26 +1801,98 @@
       <c r="AD11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AH11" s="5">
+      <c r="AM11" s="51">
+        <v>-14</v>
+      </c>
+      <c r="AN11" s="51">
+        <v>-13</v>
+      </c>
+      <c r="AO11" s="51">
+        <v>-12</v>
+      </c>
+      <c r="AP11" s="51">
+        <v>-11</v>
+      </c>
+      <c r="AQ11" s="51">
+        <v>-10</v>
+      </c>
+      <c r="AR11" s="51">
+        <v>-9</v>
+      </c>
+      <c r="AS11" s="51">
+        <v>-8</v>
+      </c>
+      <c r="AT11" s="51">
+        <v>-7</v>
+      </c>
+      <c r="AU11" s="51">
+        <v>-6</v>
+      </c>
+      <c r="AV11" s="51">
+        <v>-5</v>
+      </c>
+      <c r="AW11" s="23">
+        <v>-4</v>
+      </c>
+      <c r="AX11" s="17">
+        <v>-3</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>-2</v>
+      </c>
+      <c r="AZ11" s="57">
+        <v>-1</v>
+      </c>
+      <c r="BA11" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="58">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE11" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF11" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG11" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH11" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI11" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ11" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK11" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN11" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AI11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="5">
+      <c r="BO11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AM11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="BP11" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -1379,8 +1925,40 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="41"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="22"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="41"/>
+    </row>
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
@@ -1413,15 +1991,40 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="41"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="52"/>
-      <c r="AL13" s="52"/>
-      <c r="AM13" s="52"/>
-      <c r="AN13" s="53"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="1">
+        <v>-2</v>
+      </c>
+      <c r="BB13" s="33"/>
+      <c r="BC13" s="34"/>
+      <c r="BD13" s="22"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="41"/>
+    </row>
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
@@ -1454,26 +2057,40 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="41"/>
-      <c r="AH14" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI14" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ14" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL14" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM14" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN14" s="46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="30"/>
+      <c r="AZ14" s="30"/>
+      <c r="BA14" s="17">
+        <v>-3</v>
+      </c>
+      <c r="BB14" s="30"/>
+      <c r="BC14" s="30"/>
+      <c r="BD14" s="31"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="41"/>
+    </row>
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1506,26 +2123,40 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="41"/>
-      <c r="AH15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AI15" s="5">
-        <v>4</v>
-      </c>
-      <c r="AJ15" s="5">
-        <v>7</v>
-      </c>
-      <c r="AL15" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="5">
-        <v>8</v>
-      </c>
-      <c r="AN15" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM15" s="45"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="54">
+        <v>-4</v>
+      </c>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="2"/>
+      <c r="BO15" s="2"/>
+      <c r="BP15" s="41"/>
+    </row>
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1558,8 +2189,40 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="41"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="51">
+        <v>-5</v>
+      </c>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="41"/>
+    </row>
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1592,8 +2255,40 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="41"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="51">
+        <v>-6</v>
+      </c>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="41"/>
+    </row>
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1626,8 +2321,40 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="41"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AM18" s="40"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="51">
+        <v>-7</v>
+      </c>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="41"/>
+    </row>
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1660,8 +2387,40 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="41"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AM19" s="40"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="3">
+        <v>-8</v>
+      </c>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="41"/>
+    </row>
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1694,8 +2453,40 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="41"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="3">
+        <v>-9</v>
+      </c>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="41"/>
+    </row>
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -1728,14 +2519,1656 @@
       <c r="AB21" s="43"/>
       <c r="AC21" s="43"/>
       <c r="AD21" s="44"/>
+      <c r="AM21" s="42"/>
+      <c r="AN21" s="43"/>
+      <c r="AO21" s="43"/>
+      <c r="AP21" s="43"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="43"/>
+      <c r="AS21" s="43"/>
+      <c r="AT21" s="43"/>
+      <c r="AU21" s="43"/>
+      <c r="AV21" s="43"/>
+      <c r="AW21" s="43"/>
+      <c r="AX21" s="43"/>
+      <c r="AY21" s="43"/>
+      <c r="AZ21" s="43"/>
+      <c r="BA21" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BB21" s="43"/>
+      <c r="BC21" s="43"/>
+      <c r="BD21" s="43"/>
+      <c r="BE21" s="43"/>
+      <c r="BF21" s="43"/>
+      <c r="BG21" s="43"/>
+      <c r="BH21" s="43"/>
+      <c r="BI21" s="43"/>
+      <c r="BJ21" s="43"/>
+      <c r="BK21" s="43"/>
+      <c r="BL21" s="43"/>
+      <c r="BM21" s="43"/>
+      <c r="BN21" s="43"/>
+      <c r="BO21" s="43"/>
+      <c r="BP21" s="44"/>
+    </row>
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="1">
+        <v>10</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="50"/>
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="38"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="38"/>
+      <c r="AS23" s="38"/>
+      <c r="AT23" s="38"/>
+      <c r="AU23" s="38"/>
+      <c r="AV23" s="38"/>
+      <c r="AW23" s="38"/>
+      <c r="AX23" s="38"/>
+      <c r="AY23" s="38"/>
+      <c r="AZ23" s="38"/>
+      <c r="BA23" s="1">
+        <v>11</v>
+      </c>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8"/>
+      <c r="BE23" s="8"/>
+      <c r="BF23" s="8"/>
+      <c r="BG23" s="8"/>
+      <c r="BH23" s="8"/>
+      <c r="BI23" s="9"/>
+      <c r="BJ23" s="38"/>
+      <c r="BK23" s="38"/>
+      <c r="BL23" s="38"/>
+      <c r="BM23" s="38"/>
+      <c r="BN23" s="38"/>
+      <c r="BO23" s="38"/>
+      <c r="BP23" s="39"/>
+      <c r="BQ23" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="BR23" s="49"/>
+      <c r="BS23" s="49"/>
+      <c r="BT23" s="49"/>
+      <c r="BU23" s="49"/>
+      <c r="BV23" s="49"/>
+      <c r="BW23" s="50"/>
+    </row>
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="1">
+        <v>9</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF24" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG24" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI24" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ24" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK24" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM24" s="45"/>
+      <c r="BA24" s="1">
+        <v>10</v>
+      </c>
+      <c r="BB24" s="59"/>
+      <c r="BC24" s="59"/>
+      <c r="BD24" s="59"/>
+      <c r="BE24" s="59"/>
+      <c r="BF24" s="59"/>
+      <c r="BG24" s="59"/>
+      <c r="BH24" s="59"/>
+      <c r="BI24" s="60"/>
+      <c r="BQ24" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR24" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS24" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU24" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV24" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW24" s="46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="1">
+        <v>8</v>
+      </c>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="5">
+        <v>7</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG25" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI25" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK25" s="5">
+        <v>5</v>
+      </c>
+      <c r="AM25" s="45"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="6"/>
+      <c r="AY25" s="6"/>
+      <c r="AZ25" s="6"/>
+      <c r="BA25" s="1">
+        <v>9</v>
+      </c>
+      <c r="BB25" s="11"/>
+      <c r="BC25" s="11"/>
+      <c r="BD25" s="11"/>
+      <c r="BE25" s="11"/>
+      <c r="BF25" s="11"/>
+      <c r="BG25" s="11"/>
+      <c r="BH25" s="11"/>
+      <c r="BI25" s="12"/>
+      <c r="BJ25" s="6"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="41"/>
+      <c r="BQ25" s="5">
+        <v>5</v>
+      </c>
+      <c r="BR25" s="5">
+        <v>4</v>
+      </c>
+      <c r="BS25" s="5">
+        <v>7</v>
+      </c>
+      <c r="BU25" s="5">
+        <v>1</v>
+      </c>
+      <c r="BV25" s="5">
+        <v>8</v>
+      </c>
+      <c r="BW25" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="1">
+        <v>7</v>
+      </c>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="41"/>
+      <c r="AM26" s="45"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26" s="6"/>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="6"/>
+      <c r="AX26" s="6"/>
+      <c r="AY26" s="6"/>
+      <c r="AZ26" s="6"/>
+      <c r="BA26" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB26" s="11"/>
+      <c r="BC26" s="11"/>
+      <c r="BD26" s="11"/>
+      <c r="BE26" s="11"/>
+      <c r="BF26" s="11"/>
+      <c r="BG26" s="11"/>
+      <c r="BH26" s="11"/>
+      <c r="BI26" s="12"/>
+      <c r="BJ26" s="6"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="41"/>
+    </row>
+    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="1">
+        <v>6</v>
+      </c>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="41"/>
+      <c r="AM27" s="45"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="6"/>
+      <c r="AT27" s="6"/>
+      <c r="AU27" s="6"/>
+      <c r="AV27" s="6"/>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="6"/>
+      <c r="AY27" s="6"/>
+      <c r="AZ27" s="6"/>
+      <c r="BA27" s="1">
+        <v>7</v>
+      </c>
+      <c r="BB27" s="11"/>
+      <c r="BC27" s="11"/>
+      <c r="BD27" s="11"/>
+      <c r="BE27" s="14"/>
+      <c r="BF27" s="11"/>
+      <c r="BG27" s="11"/>
+      <c r="BH27" s="11"/>
+      <c r="BI27" s="61"/>
+      <c r="BJ27" s="6"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="41"/>
+    </row>
+    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="1">
+        <v>5</v>
+      </c>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="41"/>
+      <c r="AM28" s="45"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="6"/>
+      <c r="AT28" s="6"/>
+      <c r="AU28" s="6"/>
+      <c r="AV28" s="6"/>
+      <c r="AW28" s="6"/>
+      <c r="AX28" s="6"/>
+      <c r="AY28" s="6"/>
+      <c r="AZ28" s="6"/>
+      <c r="BA28" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB28" s="11"/>
+      <c r="BC28" s="11"/>
+      <c r="BD28" s="11"/>
+      <c r="BE28" s="11"/>
+      <c r="BF28" s="11"/>
+      <c r="BG28" s="11"/>
+      <c r="BH28" s="11"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="6"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="41"/>
+    </row>
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="1">
+        <v>4</v>
+      </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="41"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="6"/>
+      <c r="AT29" s="6"/>
+      <c r="AU29" s="6"/>
+      <c r="AV29" s="6"/>
+      <c r="AW29" s="6"/>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="6"/>
+      <c r="AZ29" s="6"/>
+      <c r="BA29" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB29" s="11"/>
+      <c r="BC29" s="11"/>
+      <c r="BD29" s="11"/>
+      <c r="BE29" s="11"/>
+      <c r="BF29" s="11"/>
+      <c r="BG29" s="11"/>
+      <c r="BH29" s="11"/>
+      <c r="BI29" s="12"/>
+      <c r="BJ29" s="6"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="41"/>
+    </row>
+    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="1">
+        <v>3</v>
+      </c>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="41"/>
+      <c r="AM30" s="45"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="6"/>
+      <c r="AT30" s="6"/>
+      <c r="AU30" s="6"/>
+      <c r="AV30" s="6"/>
+      <c r="AW30" s="6"/>
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="6"/>
+      <c r="AZ30" s="6"/>
+      <c r="BA30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB30" s="11"/>
+      <c r="BC30" s="11"/>
+      <c r="BD30" s="11"/>
+      <c r="BE30" s="11"/>
+      <c r="BF30" s="11"/>
+      <c r="BG30" s="11"/>
+      <c r="BH30" s="11"/>
+      <c r="BI30" s="12"/>
+      <c r="BJ30" s="6"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="41"/>
+    </row>
+    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="1">
+        <v>2</v>
+      </c>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="41"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="6"/>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB31" s="33"/>
+      <c r="BC31" s="33"/>
+      <c r="BD31" s="33"/>
+      <c r="BE31" s="33"/>
+      <c r="BF31" s="33"/>
+      <c r="BG31" s="33"/>
+      <c r="BH31" s="33"/>
+      <c r="BI31" s="34"/>
+      <c r="BJ31" s="6"/>
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="2"/>
+      <c r="BM31" s="2"/>
+      <c r="BN31" s="2"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="41"/>
+    </row>
+    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="41"/>
+      <c r="AM32" s="45"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="6"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="6"/>
+      <c r="AT32" s="6"/>
+      <c r="AU32" s="6"/>
+      <c r="AV32" s="6"/>
+      <c r="AW32" s="6"/>
+      <c r="AX32" s="6"/>
+      <c r="AY32" s="6"/>
+      <c r="AZ32" s="6"/>
+      <c r="BA32" s="54">
+        <v>2</v>
+      </c>
+      <c r="BB32" s="6"/>
+      <c r="BC32" s="6"/>
+      <c r="BD32" s="6"/>
+      <c r="BE32" s="6"/>
+      <c r="BF32" s="6"/>
+      <c r="BG32" s="6"/>
+      <c r="BH32" s="6"/>
+      <c r="BI32" s="6"/>
+      <c r="BJ32" s="6"/>
+      <c r="BK32" s="2"/>
+      <c r="BL32" s="2"/>
+      <c r="BM32" s="2"/>
+      <c r="BN32" s="2"/>
+      <c r="BO32" s="2"/>
+      <c r="BP32" s="41"/>
+    </row>
+    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A33" s="51">
+        <v>-14</v>
+      </c>
+      <c r="B33" s="51">
+        <v>-13</v>
+      </c>
+      <c r="C33" s="51">
+        <v>-12</v>
+      </c>
+      <c r="D33" s="51">
+        <v>-11</v>
+      </c>
+      <c r="E33" s="51">
+        <v>-10</v>
+      </c>
+      <c r="F33" s="51">
+        <v>-9</v>
+      </c>
+      <c r="G33" s="51">
+        <v>-8</v>
+      </c>
+      <c r="H33" s="51">
+        <v>-7</v>
+      </c>
+      <c r="I33" s="51">
+        <v>-6</v>
+      </c>
+      <c r="J33" s="51">
+        <v>-5</v>
+      </c>
+      <c r="K33" s="23">
+        <v>-4</v>
+      </c>
+      <c r="L33" s="1">
+        <v>-3</v>
+      </c>
+      <c r="M33" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N33" s="57">
+        <v>-1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="S33" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="T33" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="U33" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="V33" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="W33" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="X33" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y33" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM33" s="45"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="6"/>
+      <c r="AR33" s="6"/>
+      <c r="AS33" s="6"/>
+      <c r="AT33" s="6"/>
+      <c r="AU33" s="6"/>
+      <c r="AV33" s="6"/>
+      <c r="AW33" s="6"/>
+      <c r="AX33" s="6"/>
+      <c r="AY33" s="6"/>
+      <c r="AZ33" s="6"/>
+      <c r="BA33" s="51">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="6"/>
+      <c r="BC33" s="6"/>
+      <c r="BD33" s="6"/>
+      <c r="BE33" s="6"/>
+      <c r="BF33" s="6"/>
+      <c r="BG33" s="6"/>
+      <c r="BH33" s="6"/>
+      <c r="BI33" s="6"/>
+      <c r="BJ33" s="6"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="41"/>
+    </row>
+    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A34" s="45"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="41"/>
+      <c r="AM34" s="51">
+        <v>-14</v>
+      </c>
+      <c r="AN34" s="51">
+        <v>-13</v>
+      </c>
+      <c r="AO34" s="51">
+        <v>-12</v>
+      </c>
+      <c r="AP34" s="51">
+        <v>-11</v>
+      </c>
+      <c r="AQ34" s="51">
+        <v>-10</v>
+      </c>
+      <c r="AR34" s="51">
+        <v>-9</v>
+      </c>
+      <c r="AS34" s="51">
+        <v>-8</v>
+      </c>
+      <c r="AT34" s="51">
+        <v>-7</v>
+      </c>
+      <c r="AU34" s="51">
+        <v>-6</v>
+      </c>
+      <c r="AV34" s="51">
+        <v>-5</v>
+      </c>
+      <c r="AW34" s="51">
+        <v>-4</v>
+      </c>
+      <c r="AX34" s="51">
+        <v>-3</v>
+      </c>
+      <c r="AY34" s="51">
+        <v>-2</v>
+      </c>
+      <c r="AZ34" s="23">
+        <v>-1</v>
+      </c>
+      <c r="BA34" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="55">
+        <v>1</v>
+      </c>
+      <c r="BC34" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD34" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE34" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF34" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG34" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH34" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI34" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ34" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK34" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL34" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM34" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN34" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO34" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP34" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A35" s="45"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="1">
+        <v>-2</v>
+      </c>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="41"/>
+      <c r="AM35" s="45"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="6"/>
+      <c r="AS35" s="6"/>
+      <c r="AT35" s="6"/>
+      <c r="AU35" s="6"/>
+      <c r="AV35" s="6"/>
+      <c r="AW35" s="6"/>
+      <c r="AX35" s="6"/>
+      <c r="AY35" s="6"/>
+      <c r="AZ35" s="6"/>
+      <c r="BA35" s="51">
+        <v>-1</v>
+      </c>
+      <c r="BB35" s="6"/>
+      <c r="BC35" s="6"/>
+      <c r="BD35" s="6"/>
+      <c r="BE35" s="6"/>
+      <c r="BF35" s="6"/>
+      <c r="BG35" s="6"/>
+      <c r="BH35" s="6"/>
+      <c r="BI35" s="6"/>
+      <c r="BJ35" s="6"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="41"/>
+    </row>
+    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A36" s="45"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="54">
+        <v>-3</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="41"/>
+      <c r="AM36" s="45"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="6"/>
+      <c r="AT36" s="6"/>
+      <c r="AU36" s="6"/>
+      <c r="AV36" s="6"/>
+      <c r="AW36" s="6"/>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="6"/>
+      <c r="AZ36" s="6"/>
+      <c r="BA36" s="51">
+        <v>-2</v>
+      </c>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
+      <c r="BE36" s="6"/>
+      <c r="BF36" s="6"/>
+      <c r="BG36" s="6"/>
+      <c r="BH36" s="6"/>
+      <c r="BI36" s="6"/>
+      <c r="BJ36" s="6"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="2"/>
+      <c r="BN36" s="2"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36" s="41"/>
+    </row>
+    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A37" s="45"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="51">
+        <v>-4</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="41"/>
+      <c r="AM37" s="45"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="6"/>
+      <c r="AR37" s="6"/>
+      <c r="AS37" s="6"/>
+      <c r="AT37" s="6"/>
+      <c r="AU37" s="6"/>
+      <c r="AV37" s="6"/>
+      <c r="AW37" s="6"/>
+      <c r="AX37" s="6"/>
+      <c r="AY37" s="6"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="51">
+        <v>-3</v>
+      </c>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37" s="2"/>
+      <c r="BM37" s="2"/>
+      <c r="BN37" s="2"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37" s="41"/>
+    </row>
+    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="51">
+        <v>-5</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="41"/>
+      <c r="AM38" s="45"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="6"/>
+      <c r="AQ38" s="6"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="6"/>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="6"/>
+      <c r="AV38" s="6"/>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="6"/>
+      <c r="AZ38" s="2"/>
+      <c r="BA38" s="51">
+        <v>-4</v>
+      </c>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="2"/>
+      <c r="BE38" s="2"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="2"/>
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="2"/>
+      <c r="BL38" s="2"/>
+      <c r="BM38" s="2"/>
+      <c r="BN38" s="2"/>
+      <c r="BO38" s="2"/>
+      <c r="BP38" s="41"/>
+    </row>
+    <row r="39" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="51">
+        <v>-6</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="41"/>
+      <c r="AM39" s="40"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="51">
+        <v>-5</v>
+      </c>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39" s="2"/>
+      <c r="BM39" s="2"/>
+      <c r="BN39" s="2"/>
+      <c r="BO39" s="2"/>
+      <c r="BP39" s="41"/>
+    </row>
+    <row r="40" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="51">
+        <v>-7</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="41"/>
+      <c r="AM40" s="40"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="51">
+        <v>-6</v>
+      </c>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
+      <c r="BE40" s="2"/>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+      <c r="BJ40" s="2"/>
+      <c r="BK40" s="2"/>
+      <c r="BL40" s="2"/>
+      <c r="BM40" s="2"/>
+      <c r="BN40" s="2"/>
+      <c r="BO40" s="2"/>
+      <c r="BP40" s="41"/>
+    </row>
+    <row r="41" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="3">
+        <v>-8</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="41"/>
+      <c r="AM41" s="40"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="2"/>
+      <c r="BA41" s="51">
+        <v>-7</v>
+      </c>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2"/>
+      <c r="BE41" s="2"/>
+      <c r="BF41" s="2"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="2"/>
+      <c r="BL41" s="2"/>
+      <c r="BM41" s="2"/>
+      <c r="BN41" s="2"/>
+      <c r="BO41" s="2"/>
+      <c r="BP41" s="41"/>
+    </row>
+    <row r="42" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="3">
+        <v>-9</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="41"/>
+      <c r="AM42" s="40"/>
+      <c r="AN42" s="2"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2"/>
+      <c r="AV42" s="2"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="2"/>
+      <c r="BA42" s="3">
+        <v>-8</v>
+      </c>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="2"/>
+      <c r="BE42" s="2"/>
+      <c r="BF42" s="2"/>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="2"/>
+      <c r="BL42" s="2"/>
+      <c r="BM42" s="2"/>
+      <c r="BN42" s="2"/>
+      <c r="BO42" s="2"/>
+      <c r="BP42" s="41"/>
+    </row>
+    <row r="43" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="3">
+        <v>-10</v>
+      </c>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="44"/>
+      <c r="AM43" s="40"/>
+      <c r="AN43" s="2"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="2"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="2"/>
+      <c r="AU43" s="2"/>
+      <c r="AV43" s="2"/>
+      <c r="AW43" s="2"/>
+      <c r="AX43" s="2"/>
+      <c r="AY43" s="2"/>
+      <c r="AZ43" s="2"/>
+      <c r="BA43" s="3">
+        <v>-9</v>
+      </c>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
+      <c r="BD43" s="2"/>
+      <c r="BE43" s="2"/>
+      <c r="BF43" s="2"/>
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="2"/>
+      <c r="BJ43" s="2"/>
+      <c r="BK43" s="2"/>
+      <c r="BL43" s="2"/>
+      <c r="BM43" s="2"/>
+      <c r="BN43" s="2"/>
+      <c r="BO43" s="2"/>
+      <c r="BP43" s="41"/>
+    </row>
+    <row r="44" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="AM44" s="42"/>
+      <c r="AN44" s="43"/>
+      <c r="AO44" s="43"/>
+      <c r="AP44" s="43"/>
+      <c r="AQ44" s="43"/>
+      <c r="AR44" s="43"/>
+      <c r="AS44" s="43"/>
+      <c r="AT44" s="43"/>
+      <c r="AU44" s="43"/>
+      <c r="AV44" s="43"/>
+      <c r="AW44" s="43"/>
+      <c r="AX44" s="43"/>
+      <c r="AY44" s="43"/>
+      <c r="AZ44" s="43"/>
+      <c r="BA44" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BB44" s="43"/>
+      <c r="BC44" s="43"/>
+      <c r="BD44" s="43"/>
+      <c r="BE44" s="43"/>
+      <c r="BF44" s="43"/>
+      <c r="BG44" s="43"/>
+      <c r="BH44" s="43"/>
+      <c r="BI44" s="43"/>
+      <c r="BJ44" s="43"/>
+      <c r="BK44" s="43"/>
+      <c r="BL44" s="43"/>
+      <c r="BM44" s="43"/>
+      <c r="BN44" s="43"/>
+      <c r="BO44" s="43"/>
+      <c r="BP44" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="AH1:AN1"/>
+  <mergeCells count="4">
+    <mergeCell ref="AE1:AK1"/>
+    <mergeCell ref="AE23:AK23"/>
+    <mergeCell ref="BQ1:BW1"/>
+    <mergeCell ref="BQ23:BW23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="Q11 R11:AD11" numberStoredAsText="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/_1039/Novo(a) Planilha do Microsoft Excel.xlsx
+++ b/_1039/Novo(a) Planilha do Microsoft Excel.xlsx
@@ -605,6 +605,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,39 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K12" workbookViewId="0">
-      <selection activeCell="BV32" sqref="BV32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -988,15 +988,15 @@
       <c r="AB1" s="38"/>
       <c r="AC1" s="38"/>
       <c r="AD1" s="39"/>
-      <c r="AE1" s="48" t="s">
+      <c r="AE1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="50"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="61"/>
       <c r="AM1" s="37"/>
       <c r="AN1" s="38"/>
       <c r="AO1" s="38"/>
@@ -1011,7 +1011,7 @@
       <c r="AX1" s="6"/>
       <c r="AY1" s="6"/>
       <c r="AZ1" s="6"/>
-      <c r="BA1" s="51">
+      <c r="BA1" s="48">
         <v>10</v>
       </c>
       <c r="BB1" s="6"/>
@@ -1029,15 +1029,15 @@
       <c r="BN1" s="38"/>
       <c r="BO1" s="38"/>
       <c r="BP1" s="39"/>
-      <c r="BQ1" s="48" t="s">
+      <c r="BQ1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="50"/>
+      <c r="BR1" s="60"/>
+      <c r="BS1" s="60"/>
+      <c r="BT1" s="60"/>
+      <c r="BU1" s="60"/>
+      <c r="BV1" s="60"/>
+      <c r="BW1" s="61"/>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
@@ -1104,7 +1104,7 @@
       <c r="AX2" s="6"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
-      <c r="BA2" s="51">
+      <c r="BA2" s="48">
         <v>9</v>
       </c>
       <c r="BB2" s="6"/>
@@ -1206,7 +1206,7 @@
       <c r="AX3" s="6"/>
       <c r="AY3" s="6"/>
       <c r="AZ3" s="6"/>
-      <c r="BA3" s="51">
+      <c r="BA3" s="48">
         <v>8</v>
       </c>
       <c r="BB3" s="6"/>
@@ -1294,7 +1294,7 @@
       <c r="AX4" s="6"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
-      <c r="BA4" s="51">
+      <c r="BA4" s="48">
         <v>7</v>
       </c>
       <c r="BB4" s="6"/>
@@ -1361,7 +1361,7 @@
       <c r="AX5" s="6"/>
       <c r="AY5" s="6"/>
       <c r="AZ5" s="6"/>
-      <c r="BA5" s="51">
+      <c r="BA5" s="48">
         <v>6</v>
       </c>
       <c r="BB5" s="6"/>
@@ -1427,7 +1427,7 @@
       <c r="AX6" s="6"/>
       <c r="AY6" s="6"/>
       <c r="AZ6" s="6"/>
-      <c r="BA6" s="51">
+      <c r="BA6" s="48">
         <v>5</v>
       </c>
       <c r="BB6" s="6"/>
@@ -1493,7 +1493,7 @@
       <c r="AX7" s="6"/>
       <c r="AY7" s="6"/>
       <c r="AZ7" s="6"/>
-      <c r="BA7" s="52">
+      <c r="BA7" s="49">
         <v>4</v>
       </c>
       <c r="BB7" s="6"/>
@@ -1801,34 +1801,34 @@
       <c r="AD11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AM11" s="51">
+      <c r="AM11" s="48">
         <v>-14</v>
       </c>
-      <c r="AN11" s="51">
+      <c r="AN11" s="48">
         <v>-13</v>
       </c>
-      <c r="AO11" s="51">
+      <c r="AO11" s="48">
         <v>-12</v>
       </c>
-      <c r="AP11" s="51">
+      <c r="AP11" s="48">
         <v>-11</v>
       </c>
-      <c r="AQ11" s="51">
+      <c r="AQ11" s="48">
         <v>-10</v>
       </c>
-      <c r="AR11" s="51">
+      <c r="AR11" s="48">
         <v>-9</v>
       </c>
-      <c r="AS11" s="51">
+      <c r="AS11" s="48">
         <v>-8</v>
       </c>
-      <c r="AT11" s="51">
+      <c r="AT11" s="48">
         <v>-7</v>
       </c>
-      <c r="AU11" s="51">
+      <c r="AU11" s="48">
         <v>-6</v>
       </c>
-      <c r="AV11" s="51">
+      <c r="AV11" s="48">
         <v>-5</v>
       </c>
       <c r="AW11" s="23">
@@ -1840,37 +1840,37 @@
       <c r="AY11" s="1">
         <v>-2</v>
       </c>
-      <c r="AZ11" s="57">
+      <c r="AZ11" s="54">
         <v>-1</v>
       </c>
       <c r="BA11" s="14">
         <v>0</v>
       </c>
-      <c r="BB11" s="58">
+      <c r="BB11" s="55">
         <v>1</v>
       </c>
-      <c r="BC11" s="56" t="s">
+      <c r="BC11" s="53" t="s">
         <v>12</v>
       </c>
       <c r="BD11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="BE11" s="55" t="s">
+      <c r="BE11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BF11" s="53" t="s">
+      <c r="BF11" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="BG11" s="53" t="s">
+      <c r="BG11" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="BH11" s="53" t="s">
+      <c r="BH11" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="BI11" s="53" t="s">
+      <c r="BI11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="BJ11" s="53" t="s">
+      <c r="BJ11" s="50" t="s">
         <v>19</v>
       </c>
       <c r="BK11" s="27" t="s">
@@ -2137,7 +2137,7 @@
       <c r="AX15" s="6"/>
       <c r="AY15" s="6"/>
       <c r="AZ15" s="2"/>
-      <c r="BA15" s="54">
+      <c r="BA15" s="51">
         <v>-4</v>
       </c>
       <c r="BB15" s="2"/>
@@ -2203,7 +2203,7 @@
       <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>
-      <c r="BA16" s="51">
+      <c r="BA16" s="48">
         <v>-5</v>
       </c>
       <c r="BB16" s="2"/>
@@ -2269,7 +2269,7 @@
       <c r="AX17" s="2"/>
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2"/>
-      <c r="BA17" s="51">
+      <c r="BA17" s="48">
         <v>-6</v>
       </c>
       <c r="BB17" s="2"/>
@@ -2335,7 +2335,7 @@
       <c r="AX18" s="2"/>
       <c r="AY18" s="2"/>
       <c r="AZ18" s="2"/>
-      <c r="BA18" s="51">
+      <c r="BA18" s="48">
         <v>-7</v>
       </c>
       <c r="BB18" s="2"/>
@@ -2585,15 +2585,15 @@
       <c r="AB23" s="38"/>
       <c r="AC23" s="38"/>
       <c r="AD23" s="39"/>
-      <c r="AE23" s="48" t="s">
+      <c r="AE23" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="50"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="60"/>
+      <c r="AJ23" s="60"/>
+      <c r="AK23" s="61"/>
       <c r="AM23" s="37"/>
       <c r="AN23" s="38"/>
       <c r="AO23" s="38"/>
@@ -2626,15 +2626,15 @@
       <c r="BN23" s="38"/>
       <c r="BO23" s="38"/>
       <c r="BP23" s="39"/>
-      <c r="BQ23" s="48" t="s">
+      <c r="BQ23" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BR23" s="49"/>
-      <c r="BS23" s="49"/>
-      <c r="BT23" s="49"/>
-      <c r="BU23" s="49"/>
-      <c r="BV23" s="49"/>
-      <c r="BW23" s="50"/>
+      <c r="BR23" s="60"/>
+      <c r="BS23" s="60"/>
+      <c r="BT23" s="60"/>
+      <c r="BU23" s="60"/>
+      <c r="BV23" s="60"/>
+      <c r="BW23" s="61"/>
     </row>
     <row r="24" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
@@ -2691,14 +2691,14 @@
       <c r="BA24" s="1">
         <v>10</v>
       </c>
-      <c r="BB24" s="59"/>
-      <c r="BC24" s="59"/>
-      <c r="BD24" s="59"/>
-      <c r="BE24" s="59"/>
-      <c r="BF24" s="59"/>
-      <c r="BG24" s="59"/>
-      <c r="BH24" s="59"/>
-      <c r="BI24" s="60"/>
+      <c r="BB24" s="56"/>
+      <c r="BC24" s="56"/>
+      <c r="BD24" s="56"/>
+      <c r="BE24" s="56"/>
+      <c r="BF24" s="56"/>
+      <c r="BG24" s="56"/>
+      <c r="BH24" s="56"/>
+      <c r="BI24" s="57"/>
       <c r="BQ24" s="46" t="s">
         <v>6</v>
       </c>
@@ -2943,7 +2943,7 @@
       <c r="BF27" s="11"/>
       <c r="BG27" s="11"/>
       <c r="BH27" s="11"/>
-      <c r="BI27" s="61"/>
+      <c r="BI27" s="58"/>
       <c r="BJ27" s="6"/>
       <c r="BK27" s="2"/>
       <c r="BL27" s="2"/>
@@ -3263,7 +3263,7 @@
       <c r="AX32" s="6"/>
       <c r="AY32" s="6"/>
       <c r="AZ32" s="6"/>
-      <c r="BA32" s="54">
+      <c r="BA32" s="51">
         <v>2</v>
       </c>
       <c r="BB32" s="6"/>
@@ -3283,34 +3283,34 @@
       <c r="BP32" s="41"/>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A33" s="51">
+      <c r="A33" s="48">
         <v>-14</v>
       </c>
-      <c r="B33" s="51">
+      <c r="B33" s="48">
         <v>-13</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="48">
         <v>-12</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="48">
         <v>-11</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="48">
         <v>-10</v>
       </c>
-      <c r="F33" s="51">
+      <c r="F33" s="48">
         <v>-9</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G33" s="48">
         <v>-8</v>
       </c>
-      <c r="H33" s="51">
+      <c r="H33" s="48">
         <v>-7</v>
       </c>
-      <c r="I33" s="51">
+      <c r="I33" s="48">
         <v>-6</v>
       </c>
-      <c r="J33" s="51">
+      <c r="J33" s="48">
         <v>-5</v>
       </c>
       <c r="K33" s="23">
@@ -3322,37 +3322,37 @@
       <c r="M33" s="1">
         <v>-2</v>
       </c>
-      <c r="N33" s="57">
+      <c r="N33" s="54">
         <v>-1</v>
       </c>
       <c r="O33" s="1">
         <v>0</v>
       </c>
-      <c r="P33" s="58">
+      <c r="P33" s="55">
         <v>1</v>
       </c>
-      <c r="Q33" s="56" t="s">
+      <c r="Q33" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="R33" s="56" t="s">
+      <c r="R33" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="S33" s="56" t="s">
+      <c r="S33" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="T33" s="56" t="s">
+      <c r="T33" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="U33" s="56" t="s">
+      <c r="U33" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="V33" s="56" t="s">
+      <c r="V33" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W33" s="56" t="s">
+      <c r="W33" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="X33" s="56" t="s">
+      <c r="X33" s="53" t="s">
         <v>19</v>
       </c>
       <c r="Y33" s="26" t="s">
@@ -3387,7 +3387,7 @@
       <c r="AX33" s="6"/>
       <c r="AY33" s="6"/>
       <c r="AZ33" s="6"/>
-      <c r="BA33" s="51">
+      <c r="BA33" s="48">
         <v>1</v>
       </c>
       <c r="BB33" s="6"/>
@@ -3439,76 +3439,76 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="41"/>
-      <c r="AM34" s="51">
+      <c r="AM34" s="48">
         <v>-14</v>
       </c>
-      <c r="AN34" s="51">
+      <c r="AN34" s="48">
         <v>-13</v>
       </c>
-      <c r="AO34" s="51">
+      <c r="AO34" s="48">
         <v>-12</v>
       </c>
-      <c r="AP34" s="51">
+      <c r="AP34" s="48">
         <v>-11</v>
       </c>
-      <c r="AQ34" s="51">
+      <c r="AQ34" s="48">
         <v>-10</v>
       </c>
-      <c r="AR34" s="51">
+      <c r="AR34" s="48">
         <v>-9</v>
       </c>
-      <c r="AS34" s="51">
+      <c r="AS34" s="48">
         <v>-8</v>
       </c>
-      <c r="AT34" s="51">
+      <c r="AT34" s="48">
         <v>-7</v>
       </c>
-      <c r="AU34" s="51">
+      <c r="AU34" s="48">
         <v>-6</v>
       </c>
-      <c r="AV34" s="51">
+      <c r="AV34" s="48">
         <v>-5</v>
       </c>
-      <c r="AW34" s="51">
+      <c r="AW34" s="48">
         <v>-4</v>
       </c>
-      <c r="AX34" s="51">
+      <c r="AX34" s="48">
         <v>-3</v>
       </c>
-      <c r="AY34" s="51">
+      <c r="AY34" s="48">
         <v>-2</v>
       </c>
       <c r="AZ34" s="23">
         <v>-1</v>
       </c>
-      <c r="BA34" s="51">
+      <c r="BA34" s="48">
         <v>0</v>
       </c>
-      <c r="BB34" s="55">
+      <c r="BB34" s="52">
         <v>1</v>
       </c>
-      <c r="BC34" s="53" t="s">
+      <c r="BC34" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="BD34" s="53" t="s">
+      <c r="BD34" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="BE34" s="53" t="s">
+      <c r="BE34" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="BF34" s="53" t="s">
+      <c r="BF34" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="BG34" s="53" t="s">
+      <c r="BG34" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="BH34" s="53" t="s">
+      <c r="BH34" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="BI34" s="53" t="s">
+      <c r="BI34" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="BJ34" s="53" t="s">
+      <c r="BJ34" s="50" t="s">
         <v>19</v>
       </c>
       <c r="BK34" s="27" t="s">
@@ -3577,7 +3577,7 @@
       <c r="AX35" s="6"/>
       <c r="AY35" s="6"/>
       <c r="AZ35" s="6"/>
-      <c r="BA35" s="51">
+      <c r="BA35" s="48">
         <v>-1</v>
       </c>
       <c r="BB35" s="6"/>
@@ -3611,7 +3611,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="54">
+      <c r="O36" s="51">
         <v>-3</v>
       </c>
       <c r="P36" s="2"/>
@@ -3643,7 +3643,7 @@
       <c r="AX36" s="6"/>
       <c r="AY36" s="6"/>
       <c r="AZ36" s="6"/>
-      <c r="BA36" s="51">
+      <c r="BA36" s="48">
         <v>-2</v>
       </c>
       <c r="BB36" s="6"/>
@@ -3677,7 +3677,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="51">
+      <c r="O37" s="48">
         <v>-4</v>
       </c>
       <c r="P37" s="2"/>
@@ -3709,7 +3709,7 @@
       <c r="AX37" s="6"/>
       <c r="AY37" s="6"/>
       <c r="AZ37" s="2"/>
-      <c r="BA37" s="51">
+      <c r="BA37" s="48">
         <v>-3</v>
       </c>
       <c r="BB37" s="2"/>
@@ -3743,7 +3743,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="51">
+      <c r="O38" s="48">
         <v>-5</v>
       </c>
       <c r="P38" s="2"/>
@@ -3775,7 +3775,7 @@
       <c r="AX38" s="6"/>
       <c r="AY38" s="6"/>
       <c r="AZ38" s="2"/>
-      <c r="BA38" s="51">
+      <c r="BA38" s="48">
         <v>-4</v>
       </c>
       <c r="BB38" s="2"/>
@@ -3809,7 +3809,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="51">
+      <c r="O39" s="48">
         <v>-6</v>
       </c>
       <c r="P39" s="2"/>
@@ -3841,7 +3841,7 @@
       <c r="AX39" s="2"/>
       <c r="AY39" s="2"/>
       <c r="AZ39" s="2"/>
-      <c r="BA39" s="51">
+      <c r="BA39" s="48">
         <v>-5</v>
       </c>
       <c r="BB39" s="2"/>
@@ -3875,7 +3875,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="51">
+      <c r="O40" s="48">
         <v>-7</v>
       </c>
       <c r="P40" s="2"/>
@@ -3907,7 +3907,7 @@
       <c r="AX40" s="2"/>
       <c r="AY40" s="2"/>
       <c r="AZ40" s="2"/>
-      <c r="BA40" s="51">
+      <c r="BA40" s="48">
         <v>-6</v>
       </c>
       <c r="BB40" s="2"/>
@@ -3973,7 +3973,7 @@
       <c r="AX41" s="2"/>
       <c r="AY41" s="2"/>
       <c r="AZ41" s="2"/>
-      <c r="BA41" s="51">
+      <c r="BA41" s="48">
         <v>-7</v>
       </c>
       <c r="BB41" s="2"/>
